--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSH113\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19740" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="JavaJMS" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -190,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,6 +210,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -262,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,7 +517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -720,6 +731,12 @@
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8">
+        <v>42724</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
